--- a/submission/8e37531ba266_TGS.xlsx
+++ b/submission/8e37531ba266_TGS.xlsx
@@ -396,7 +396,7 @@
         <v>2313</v>
       </c>
       <c r="B2">
-        <v>117.9892120361328</v>
+        <v>110.7655639648438</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>2313.5</v>
       </c>
       <c r="B3">
-        <v>114.506477355957</v>
+        <v>112.890739440918</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>2314</v>
       </c>
       <c r="B4">
-        <v>120.0116729736328</v>
+        <v>105.841178894043</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>2314.5</v>
       </c>
       <c r="B5">
-        <v>121.6195755004883</v>
+        <v>102.5074844360352</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>2315</v>
       </c>
       <c r="B6">
-        <v>123.1355209350586</v>
+        <v>102.5051574707031</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>2315.5</v>
       </c>
       <c r="B7">
-        <v>123.0793685913086</v>
+        <v>103.9672775268555</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2316</v>
       </c>
       <c r="B8">
-        <v>123.0673675537109</v>
+        <v>103.9552764892578</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>2316.5</v>
       </c>
       <c r="B9">
-        <v>121.6075744628906</v>
+        <v>102.4954833984375</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>2317</v>
       </c>
       <c r="B10">
-        <v>121.6958465576172</v>
+        <v>102.5837554931641</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>2317.5</v>
       </c>
       <c r="B11">
-        <v>121.8354415893555</v>
+        <v>102.7233505249023</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>2318</v>
       </c>
       <c r="B12">
-        <v>124.2743530273438</v>
+        <v>105.1622619628906</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>2318.5</v>
       </c>
       <c r="B13">
-        <v>122.9571151733398</v>
+        <v>103.8450164794922</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>2319</v>
       </c>
       <c r="B14">
-        <v>122.9571151733398</v>
+        <v>103.8450164794922</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>2319.5</v>
       </c>
       <c r="B15">
-        <v>124.2863540649414</v>
+        <v>105.1742630004883</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>2320</v>
       </c>
       <c r="B16">
-        <v>122.2469940185547</v>
+        <v>106.0658645629883</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>2320.5</v>
       </c>
       <c r="B17">
-        <v>120.0116729736328</v>
+        <v>105.841178894043</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>2321</v>
       </c>
       <c r="B18">
-        <v>113.1994934082031</v>
+        <v>104.5119323730469</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>2321.5</v>
       </c>
       <c r="B19">
-        <v>110.0863952636719</v>
+        <v>104.5119323730469</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>2322</v>
       </c>
       <c r="B20">
-        <v>110.0863952636719</v>
+        <v>104.5119323730469</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>2322.5</v>
       </c>
       <c r="B21">
-        <v>110.0863952636719</v>
+        <v>104.5119323730469</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>2323</v>
       </c>
       <c r="B22">
-        <v>113.1994934082031</v>
+        <v>104.5119323730469</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>2323.5</v>
       </c>
       <c r="B23">
-        <v>122.9571151733398</v>
+        <v>103.8450164794922</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>2324</v>
       </c>
       <c r="B24">
-        <v>122.9571151733398</v>
+        <v>103.8450164794922</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>2324.5</v>
       </c>
       <c r="B25">
-        <v>122.9571151733398</v>
+        <v>103.8450164794922</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>2325</v>
       </c>
       <c r="B26">
-        <v>122.9571151733398</v>
+        <v>103.8450164794922</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>2325.5</v>
       </c>
       <c r="B27">
-        <v>122.8808441162109</v>
+        <v>103.7687454223633</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>2326</v>
       </c>
       <c r="B28">
-        <v>126.7036972045898</v>
+        <v>103.9050140380859</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>2326.5</v>
       </c>
       <c r="B29">
-        <v>121.0519638061523</v>
+        <v>104.6931838989258</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>2327</v>
       </c>
       <c r="B30">
-        <v>125.2560653686523</v>
+        <v>105.7960968017578</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>2327.5</v>
       </c>
       <c r="B31">
-        <v>121.4584045410156</v>
+        <v>101.3574447631836</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>2328</v>
       </c>
       <c r="B32">
-        <v>116.0533447265625</v>
+        <v>101.0220718383789</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>2328.5</v>
       </c>
       <c r="B33">
-        <v>128.0352935791016</v>
+        <v>107.5363006591797</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>2329</v>
       </c>
       <c r="B34">
-        <v>123.2898788452148</v>
+        <v>105.5451965332031</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>2329.5</v>
       </c>
       <c r="B35">
-        <v>138.8551330566406</v>
+        <v>110.7292327880859</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>2330</v>
       </c>
       <c r="B36">
-        <v>145.02783203125</v>
+        <v>123.8044128417969</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2330.5</v>
       </c>
       <c r="B37">
-        <v>136.6476898193359</v>
+        <v>114.1828536987305</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>2331</v>
       </c>
       <c r="B38">
-        <v>140.5824584960938</v>
+        <v>127.5244674682617</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>2331.5</v>
       </c>
       <c r="B39">
-        <v>129.7762145996094</v>
+        <v>112.6971664428711</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>2332</v>
       </c>
       <c r="B40">
-        <v>125.2560653686523</v>
+        <v>105.6620254516602</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>2332.5</v>
       </c>
       <c r="B41">
-        <v>119.9836654663086</v>
+        <v>102.5109558105469</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>2333</v>
       </c>
       <c r="B42">
-        <v>119.8440704345703</v>
+        <v>102.5054321289062</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>2333.5</v>
       </c>
       <c r="B43">
-        <v>113.901969909668</v>
+        <v>105.432975769043</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>2334</v>
       </c>
       <c r="B44">
-        <v>124.6792449951172</v>
+        <v>111.263313293457</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>2334.5</v>
       </c>
       <c r="B45">
-        <v>127.3631973266602</v>
+        <v>115.3229293823242</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>2335</v>
       </c>
       <c r="B46">
-        <v>124.1878280639648</v>
+        <v>112.1475524902344</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>2335.5</v>
       </c>
       <c r="B47">
-        <v>123.7035751342773</v>
+        <v>110.0200500488281</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>2336</v>
       </c>
       <c r="B48">
-        <v>126.1685180664062</v>
+        <v>110.3509674072266</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>2336.5</v>
       </c>
       <c r="B49">
-        <v>132.8545379638672</v>
+        <v>102.7120513916016</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>2337</v>
       </c>
       <c r="B50">
-        <v>130.0118713378906</v>
+        <v>108.1824340820312</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>2337.5</v>
       </c>
       <c r="B51">
-        <v>124.1689147949219</v>
+        <v>105.6706390380859</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>2338</v>
       </c>
       <c r="B52">
-        <v>125.3317260742188</v>
+        <v>107.7603530883789</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>2338.5</v>
       </c>
       <c r="B53">
-        <v>124.5699462890625</v>
+        <v>108.5168380737305</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>2339</v>
       </c>
       <c r="B54">
-        <v>122.3109130859375</v>
+        <v>106.2578125</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>2339.5</v>
       </c>
       <c r="B55">
-        <v>126.2756042480469</v>
+        <v>108.7042236328125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>2340</v>
       </c>
       <c r="B56">
-        <v>126.2756042480469</v>
+        <v>108.7042236328125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>2340.5</v>
       </c>
       <c r="B57">
-        <v>126.4141998291016</v>
+        <v>108.8428192138672</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>2341</v>
       </c>
       <c r="B58">
-        <v>122.3109130859375</v>
+        <v>106.2578125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>2341.5</v>
       </c>
       <c r="B59">
-        <v>119.6225433349609</v>
+        <v>103.1314468383789</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>2342</v>
       </c>
       <c r="B60">
-        <v>123.2691955566406</v>
+        <v>106.7780990600586</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>2342.5</v>
       </c>
       <c r="B61">
-        <v>121.5038909912109</v>
+        <v>102.9578628540039</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>2343</v>
       </c>
       <c r="B62">
-        <v>124.0356826782227</v>
+        <v>103.9713821411133</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>2343.5</v>
       </c>
       <c r="B63">
-        <v>124.2899627685547</v>
+        <v>103.6595993041992</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>2344</v>
       </c>
       <c r="B64">
-        <v>124.1513671875</v>
+        <v>103.5210037231445</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>2344.5</v>
       </c>
       <c r="B65">
-        <v>122.6354217529297</v>
+        <v>103.5233306884766</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>2345</v>
       </c>
       <c r="B66">
-        <v>121.6195755004883</v>
+        <v>102.5074844360352</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>2345.5</v>
       </c>
       <c r="B67">
-        <v>121.6195755004883</v>
+        <v>102.5074844360352</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>2346</v>
       </c>
       <c r="B68">
-        <v>122.6354217529297</v>
+        <v>103.5233306884766</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>2346.5</v>
       </c>
       <c r="B69">
-        <v>122.6354217529297</v>
+        <v>103.5233306884766</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>2347</v>
       </c>
       <c r="B70">
-        <v>124.1513671875</v>
+        <v>103.5210037231445</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>2347.5</v>
       </c>
       <c r="B71">
-        <v>123.2751159667969</v>
+        <v>102.6447525024414</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>2348</v>
       </c>
       <c r="B72">
-        <v>125.8646240234375</v>
+        <v>105.234260559082</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>2348.5</v>
       </c>
       <c r="B73">
-        <v>124.5353851318359</v>
+        <v>103.9050140380859</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>2349</v>
       </c>
       <c r="B74">
-        <v>128.2576293945312</v>
+        <v>105.4589462280273</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>2349.5</v>
       </c>
       <c r="B75">
-        <v>128.2576293945312</v>
+        <v>105.4589462280273</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>2350</v>
       </c>
       <c r="B76">
-        <v>128.1419372558594</v>
+        <v>105.9093246459961</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>2350.5</v>
       </c>
       <c r="B77">
-        <v>128.1419372558594</v>
+        <v>105.9093246459961</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>2351</v>
       </c>
       <c r="B78">
-        <v>125.4663391113281</v>
+        <v>103.2337265014648</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>2351.5</v>
       </c>
       <c r="B79">
-        <v>125.6645355224609</v>
+        <v>103.4319229125977</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>2352</v>
       </c>
       <c r="B80">
-        <v>133.69091796875</v>
+        <v>106.2474517822266</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>2352.5</v>
       </c>
       <c r="B81">
-        <v>130.3060607910156</v>
+        <v>98.99617004394531</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>2353</v>
       </c>
       <c r="B82">
-        <v>138.6483612060547</v>
+        <v>98.72661590576172</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>2353.5</v>
       </c>
       <c r="B83">
-        <v>125.5963592529297</v>
+        <v>94.61148834228516</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>2354</v>
       </c>
       <c r="B84">
-        <v>124.7916030883789</v>
+        <v>92.30709838867188</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>2354.5</v>
       </c>
       <c r="B85">
-        <v>121.9301223754883</v>
+        <v>89.44561767578125</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>2355</v>
       </c>
       <c r="B86">
-        <v>128.6163330078125</v>
+        <v>95.24395751953125</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>2355.5</v>
       </c>
       <c r="B87">
-        <v>128.6163330078125</v>
+        <v>95.24395751953125</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>2356</v>
       </c>
       <c r="B88">
-        <v>126.277229309082</v>
+        <v>93.99761962890625</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>2356.5</v>
       </c>
       <c r="B89">
-        <v>119.8814468383789</v>
+        <v>89.53353118896484</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>2357</v>
       </c>
       <c r="B90">
-        <v>121.0721054077148</v>
+        <v>100.0440216064453</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>2357.5</v>
       </c>
       <c r="B91">
-        <v>126.7408752441406</v>
+        <v>97.6878662109375</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>2358</v>
       </c>
       <c r="B92">
-        <v>127.1287612915039</v>
+        <v>98.22994995117188</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>2358.5</v>
       </c>
       <c r="B93">
-        <v>127.5143737792969</v>
+        <v>97.52279663085938</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>2359</v>
       </c>
       <c r="B94">
-        <v>127.5143737792969</v>
+        <v>97.52279663085938</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>2359.5</v>
       </c>
       <c r="B95">
-        <v>127.5143737792969</v>
+        <v>97.52279663085938</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>2360</v>
       </c>
       <c r="B96">
-        <v>127.5143737792969</v>
+        <v>97.52279663085938</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>2360.5</v>
       </c>
       <c r="B97">
-        <v>129.8214569091797</v>
+        <v>100.0200576782227</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>2361</v>
       </c>
       <c r="B98">
-        <v>129.1837158203125</v>
+        <v>99.38230895996094</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>2361.5</v>
       </c>
       <c r="B99">
-        <v>127.6788482666016</v>
+        <v>97.87744140625</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>2362</v>
       </c>
       <c r="B100">
-        <v>130.3101654052734</v>
+        <v>100.3185958862305</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>2362.5</v>
       </c>
       <c r="B101">
-        <v>124.9458847045898</v>
+        <v>96.04708099365234</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>2363</v>
       </c>
       <c r="B102">
-        <v>125.7413558959961</v>
+        <v>95.74612426757812</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>2363.5</v>
       </c>
       <c r="B103">
-        <v>126.7873077392578</v>
+        <v>96.09196472167969</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>2364</v>
       </c>
       <c r="B104">
-        <v>129.0479888916016</v>
+        <v>95.68744659423828</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>2364.5</v>
       </c>
       <c r="B105">
-        <v>128.6537933349609</v>
+        <v>95.48342132568359</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>2365</v>
       </c>
       <c r="B106">
-        <v>124.150146484375</v>
+        <v>94.04131317138672</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>2365.5</v>
       </c>
       <c r="B107">
-        <v>123.3637924194336</v>
+        <v>93.38902282714844</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>2366</v>
       </c>
       <c r="B108">
-        <v>124.379638671875</v>
+        <v>94.40486907958984</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>2366.5</v>
       </c>
       <c r="B109">
-        <v>127.652229309082</v>
+        <v>93.77081298828125</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>2367</v>
       </c>
       <c r="B110">
-        <v>122.9409103393555</v>
+        <v>92.96614074707031</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>2367.5</v>
       </c>
       <c r="B111">
-        <v>124.5516967773438</v>
+        <v>92.25736236572266</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>2368</v>
       </c>
       <c r="B112">
-        <v>122.8513793945312</v>
+        <v>90.36688232421875</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>2368.5</v>
       </c>
       <c r="B113">
-        <v>123.7578506469727</v>
+        <v>91.49007415771484</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>2369</v>
       </c>
       <c r="B114">
-        <v>122.1137771606445</v>
+        <v>92.51483917236328</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>2369.5</v>
       </c>
       <c r="B115">
-        <v>128.7909851074219</v>
+        <v>98.09928894042969</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>2370</v>
       </c>
       <c r="B116">
-        <v>128.9601135253906</v>
+        <v>98.10931396484375</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>2370.5</v>
       </c>
       <c r="B117">
-        <v>124.6240463256836</v>
+        <v>97.64897918701172</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>2371</v>
       </c>
       <c r="B118">
-        <v>121.21044921875</v>
+        <v>96.71366882324219</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>2371.5</v>
       </c>
       <c r="B119">
-        <v>120.9050979614258</v>
+        <v>96.40831756591797</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>2372</v>
       </c>
       <c r="B120">
-        <v>124.8727569580078</v>
+        <v>98.20766448974609</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>2372.5</v>
       </c>
       <c r="B121">
-        <v>116.3233184814453</v>
+        <v>95.53206634521484</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>2373</v>
       </c>
       <c r="B122">
-        <v>131.6474456787109</v>
+        <v>96.85226440429688</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>2373.5</v>
       </c>
       <c r="B123">
-        <v>140.8068237304688</v>
+        <v>98.20800018310547</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>2374</v>
       </c>
       <c r="B124">
-        <v>139.4595947265625</v>
+        <v>96.86080932617188</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>2374.5</v>
       </c>
       <c r="B125">
-        <v>135.5966033935547</v>
+        <v>99.92539215087891</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>2375</v>
       </c>
       <c r="B126">
-        <v>117.6435165405273</v>
+        <v>96.85226440429688</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>2375.5</v>
       </c>
       <c r="B127">
-        <v>122.0575637817383</v>
+        <v>95.39247131347656</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>2376</v>
       </c>
       <c r="B128">
-        <v>122.0575637817383</v>
+        <v>95.39247131347656</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>2376.5</v>
       </c>
       <c r="B129">
-        <v>123.5173568725586</v>
+        <v>96.85226440429688</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>2377</v>
       </c>
       <c r="B130">
-        <v>121.3490447998047</v>
+        <v>96.85226440429688</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>2377.5</v>
       </c>
       <c r="B131">
-        <v>121.21044921875</v>
+        <v>96.71366882324219</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>2378</v>
       </c>
       <c r="B132">
-        <v>119.6945037841797</v>
+        <v>96.71599578857422</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>2378.5</v>
       </c>
       <c r="B133">
-        <v>117.4304580688477</v>
+        <v>97.38291168212891</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>2379</v>
       </c>
       <c r="B134">
-        <v>119.6945037841797</v>
+        <v>96.71599578857422</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>2379.5</v>
       </c>
       <c r="B135">
-        <v>119.9655227661133</v>
+        <v>95.46874237060547</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>2380</v>
       </c>
       <c r="B136">
-        <v>124.9490280151367</v>
+        <v>98.283935546875</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>2380.5</v>
       </c>
       <c r="B137">
-        <v>124.9490280151367</v>
+        <v>98.283935546875</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>2381</v>
       </c>
       <c r="B138">
-        <v>122.3409194946289</v>
+        <v>97.84413909912109</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>2381.5</v>
       </c>
       <c r="B139">
-        <v>119.8821258544922</v>
+        <v>99.83457946777344</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>2382</v>
       </c>
       <c r="B140">
-        <v>112.388557434082</v>
+        <v>99.83457946777344</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>2382.5</v>
       </c>
       <c r="B141">
-        <v>114.6203308105469</v>
+        <v>102.3891372680664</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>2383</v>
       </c>
       <c r="B142">
-        <v>122.1138916015625</v>
+        <v>102.3891372680664</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>2383.5</v>
       </c>
       <c r="B143">
-        <v>122.1461715698242</v>
+        <v>100.3664855957031</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>2384</v>
       </c>
       <c r="B144">
-        <v>124.3016815185547</v>
+        <v>101.6459503173828</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>2384.5</v>
       </c>
       <c r="B145">
-        <v>124.4704284667969</v>
+        <v>100.2964324951172</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>2385</v>
       </c>
       <c r="B146">
-        <v>128.6609039306641</v>
+        <v>102.318603515625</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>2385.5</v>
       </c>
       <c r="B147">
-        <v>140.8016815185547</v>
+        <v>101.5126647949219</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>2386</v>
       </c>
       <c r="B148">
-        <v>129.3067474365234</v>
+        <v>96.76912689208984</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1572,7 +1572,7 @@
         <v>2386.5</v>
       </c>
       <c r="B149">
-        <v>126.3303833007812</v>
+        <v>94.4786376953125</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1580,7 +1580,7 @@
         <v>2387</v>
       </c>
       <c r="B150">
-        <v>131.0233001708984</v>
+        <v>99.36171722412109</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1588,7 +1588,7 @@
         <v>2387.5</v>
       </c>
       <c r="B151">
-        <v>130.7250366210938</v>
+        <v>99.6295166015625</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1596,7 +1596,7 @@
         <v>2388</v>
       </c>
       <c r="B152">
-        <v>131.2742767333984</v>
+        <v>99.98860168457031</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1604,7 +1604,7 @@
         <v>2388.5</v>
       </c>
       <c r="B153">
-        <v>130.286376953125</v>
+        <v>99.00068664550781</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1612,7 +1612,7 @@
         <v>2389</v>
       </c>
       <c r="B154">
-        <v>131.1634521484375</v>
+        <v>99.87777709960938</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1620,7 +1620,7 @@
         <v>2389.5</v>
       </c>
       <c r="B155">
-        <v>128.4941253662109</v>
+        <v>99.19141387939453</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1628,7 +1628,7 @@
         <v>2390</v>
       </c>
       <c r="B156">
-        <v>127.6971893310547</v>
+        <v>101.4065933227539</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1636,7 +1636,7 @@
         <v>2390.5</v>
       </c>
       <c r="B157">
-        <v>142.0807495117188</v>
+        <v>104.1844100952148</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>2391</v>
       </c>
       <c r="B158">
-        <v>135.2466278076172</v>
+        <v>99.56355285644531</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>2391.5</v>
       </c>
       <c r="B159">
-        <v>126.4070129394531</v>
+        <v>99.56355285644531</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>2392</v>
       </c>
       <c r="B160">
-        <v>145.5397644042969</v>
+        <v>102.929084777832</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>2392.5</v>
       </c>
       <c r="B161">
-        <v>132.2046813964844</v>
+        <v>104.4287109375</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>2393</v>
       </c>
       <c r="B162">
-        <v>131.8342437744141</v>
+        <v>104.5498123168945</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1684,7 +1684,7 @@
         <v>2393.5</v>
       </c>
       <c r="B163">
-        <v>131.6481628417969</v>
+        <v>106.4838714599609</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1692,7 +1692,7 @@
         <v>2394</v>
       </c>
       <c r="B164">
-        <v>135.8410034179688</v>
+        <v>111.6164779663086</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1700,7 +1700,7 @@
         <v>2394.5</v>
       </c>
       <c r="B165">
-        <v>133.8062438964844</v>
+        <v>111.6027374267578</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>2395</v>
       </c>
       <c r="B166">
-        <v>133.9477844238281</v>
+        <v>111.0545272827148</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1716,7 +1716,7 @@
         <v>2395.5</v>
       </c>
       <c r="B167">
-        <v>131.3893280029297</v>
+        <v>105.7988586425781</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1724,7 +1724,7 @@
         <v>2396</v>
       </c>
       <c r="B168">
-        <v>149.2584228515625</v>
+        <v>105.6330032348633</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1732,7 +1732,7 @@
         <v>2396.5</v>
       </c>
       <c r="B169">
-        <v>129.4138488769531</v>
+        <v>102.5703887939453</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1740,7 +1740,7 @@
         <v>2397</v>
       </c>
       <c r="B170">
-        <v>137.7993774414062</v>
+        <v>99.903076171875</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1748,7 +1748,7 @@
         <v>2397.5</v>
       </c>
       <c r="B171">
-        <v>127.4197082519531</v>
+        <v>98.46028137207031</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1756,7 +1756,7 @@
         <v>2398</v>
       </c>
       <c r="B172">
-        <v>127.7278289794922</v>
+        <v>96.58289337158203</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1764,7 +1764,7 @@
         <v>2398.5</v>
       </c>
       <c r="B173">
-        <v>125.0925979614258</v>
+        <v>95.18321990966797</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>2399</v>
       </c>
       <c r="B174">
-        <v>130.4439239501953</v>
+        <v>103.7341079711914</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1780,7 +1780,7 @@
         <v>2399.5</v>
       </c>
       <c r="B175">
-        <v>132.2632446289062</v>
+        <v>104.8383255004883</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -39780,7 +39780,7 @@
         <v>4774.5</v>
       </c>
       <c r="B4925">
-        <v>96.9346923828125</v>
+        <v>112.6973648071289</v>
       </c>
     </row>
     <row r="4926" spans="1:2">
@@ -39788,7 +39788,7 @@
         <v>4775</v>
       </c>
       <c r="B4926">
-        <v>96.9346923828125</v>
+        <v>112.6973648071289</v>
       </c>
     </row>
     <row r="4927" spans="1:2">
@@ -39796,7 +39796,7 @@
         <v>4775.5</v>
       </c>
       <c r="B4927">
-        <v>95.12844848632812</v>
+        <v>104.3893127441406</v>
       </c>
     </row>
     <row r="4928" spans="1:2">
@@ -39804,7 +39804,7 @@
         <v>4776</v>
       </c>
       <c r="B4928">
-        <v>94.62771606445312</v>
+        <v>103.6771087646484</v>
       </c>
     </row>
     <row r="4929" spans="1:2">
@@ -39812,7 +39812,7 @@
         <v>4776.5</v>
       </c>
       <c r="B4929">
-        <v>95.86719512939453</v>
+        <v>105.3669662475586</v>
       </c>
     </row>
     <row r="4930" spans="1:2">
@@ -39820,7 +39820,7 @@
         <v>4777</v>
       </c>
       <c r="B4930">
-        <v>94.24800109863281</v>
+        <v>104.2315139770508</v>
       </c>
     </row>
     <row r="4931" spans="1:2">
@@ -39828,7 +39828,7 @@
         <v>4777.5</v>
       </c>
       <c r="B4931">
-        <v>93.9898681640625</v>
+        <v>104.6233978271484</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39836,7 +39836,7 @@
         <v>4778</v>
       </c>
       <c r="B4932">
-        <v>93.15889739990234</v>
+        <v>104.0220718383789</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39844,7 +39844,7 @@
         <v>4778.5</v>
       </c>
       <c r="B4933">
-        <v>92.05076599121094</v>
+        <v>102.913932800293</v>
       </c>
     </row>
     <row r="4934" spans="1:2">
@@ -39852,7 +39852,7 @@
         <v>4779</v>
       </c>
       <c r="B4934">
-        <v>91.62312316894531</v>
+        <v>102.4862899780273</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -39860,7 +39860,7 @@
         <v>4779.5</v>
       </c>
       <c r="B4935">
-        <v>91.61501312255859</v>
+        <v>102.4781799316406</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39868,7 +39868,7 @@
         <v>4780</v>
       </c>
       <c r="B4936">
-        <v>92.32483673095703</v>
+        <v>102.958366394043</v>
       </c>
     </row>
     <row r="4937" spans="1:2">
@@ -39876,7 +39876,7 @@
         <v>4780.5</v>
       </c>
       <c r="B4937">
-        <v>95.86719512939453</v>
+        <v>105.3669662475586</v>
       </c>
     </row>
     <row r="4938" spans="1:2">
@@ -39884,7 +39884,7 @@
         <v>4781</v>
       </c>
       <c r="B4938">
-        <v>98.92171478271484</v>
+        <v>108.4214859008789</v>
       </c>
     </row>
     <row r="4939" spans="1:2">
@@ -39892,7 +39892,7 @@
         <v>4781.5</v>
       </c>
       <c r="B4939">
-        <v>99.67808532714844</v>
+        <v>108.93896484375</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -39900,7 +39900,7 @@
         <v>4782</v>
       </c>
       <c r="B4940">
-        <v>97.27766418457031</v>
+        <v>106.7681732177734</v>
       </c>
     </row>
     <row r="4941" spans="1:2">
@@ -39908,7 +39908,7 @@
         <v>4782.5</v>
       </c>
       <c r="B4941">
-        <v>95.33457183837891</v>
+        <v>108.7191696166992</v>
       </c>
     </row>
     <row r="4942" spans="1:2">
@@ -39916,7 +39916,7 @@
         <v>4783</v>
       </c>
       <c r="B4942">
-        <v>93.72520446777344</v>
+        <v>102.5011215209961</v>
       </c>
     </row>
     <row r="4943" spans="1:2">
@@ -39924,7 +39924,7 @@
         <v>4783.5</v>
       </c>
       <c r="B4943">
-        <v>104.985710144043</v>
+        <v>115.9117126464844</v>
       </c>
     </row>
     <row r="4944" spans="1:2">
@@ -39932,7 +39932,7 @@
         <v>4784</v>
       </c>
       <c r="B4944">
-        <v>106.9029159545898</v>
+        <v>112.9908294677734</v>
       </c>
     </row>
     <row r="4945" spans="1:2">
@@ -39940,7 +39940,7 @@
         <v>4784.5</v>
       </c>
       <c r="B4945">
-        <v>109.3330993652344</v>
+        <v>115.4210205078125</v>
       </c>
     </row>
     <row r="4946" spans="1:2">
@@ -39948,7 +39948,7 @@
         <v>4785</v>
       </c>
       <c r="B4946">
-        <v>113.0246658325195</v>
+        <v>118.2365417480469</v>
       </c>
     </row>
     <row r="4947" spans="1:2">
@@ -39956,7 +39956,7 @@
         <v>4785.5</v>
       </c>
       <c r="B4947">
-        <v>113.1618347167969</v>
+        <v>101.9601593017578</v>
       </c>
     </row>
     <row r="4948" spans="1:2">
@@ -39964,7 +39964,7 @@
         <v>4786</v>
       </c>
       <c r="B4948">
-        <v>112.9080352783203</v>
+        <v>101.7063598632812</v>
       </c>
     </row>
     <row r="4949" spans="1:2">
@@ -39972,7 +39972,7 @@
         <v>4786.5</v>
       </c>
       <c r="B4949">
-        <v>108.3798980712891</v>
+        <v>110.6588973999023</v>
       </c>
     </row>
     <row r="4950" spans="1:2">
@@ -39980,7 +39980,7 @@
         <v>4787</v>
       </c>
       <c r="B4950">
-        <v>108.534423828125</v>
+        <v>116.790657043457</v>
       </c>
     </row>
     <row r="4951" spans="1:2">
@@ -39988,7 +39988,7 @@
         <v>4787.5</v>
       </c>
       <c r="B4951">
-        <v>105.5586853027344</v>
+        <v>115.3331909179688</v>
       </c>
     </row>
     <row r="4952" spans="1:2">
@@ -39996,7 +39996,7 @@
         <v>4788</v>
       </c>
       <c r="B4952">
-        <v>104.4577484130859</v>
+        <v>114.2322540283203</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -40004,7 +40004,7 @@
         <v>4788.5</v>
       </c>
       <c r="B4953">
-        <v>103.1285018920898</v>
+        <v>112.9029998779297</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -40012,7 +40012,7 @@
         <v>4789</v>
       </c>
       <c r="B4954">
-        <v>104.6444473266602</v>
+        <v>112.9006729125977</v>
       </c>
     </row>
     <row r="4955" spans="1:2">
@@ -40020,7 +40020,7 @@
         <v>4789.5</v>
       </c>
       <c r="B4955">
-        <v>106.1983795166016</v>
+        <v>114.4546127319336</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -40028,7 +40028,7 @@
         <v>4790</v>
       </c>
       <c r="B4956">
-        <v>107.0746307373047</v>
+        <v>115.3308639526367</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40036,7 +40036,7 @@
         <v>4790.5</v>
       </c>
       <c r="B4957">
-        <v>105.5586853027344</v>
+        <v>115.3331909179688</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40044,7 +40044,7 @@
         <v>4791</v>
       </c>
       <c r="B4958">
-        <v>105.5586853027344</v>
+        <v>115.3331909179688</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40052,7 +40052,7 @@
         <v>4791.5</v>
       </c>
       <c r="B4959">
-        <v>104.6824340820312</v>
+        <v>114.4569396972656</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40060,7 +40060,7 @@
         <v>4792</v>
       </c>
       <c r="B4960">
-        <v>104.4577484130859</v>
+        <v>114.2322540283203</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40068,7 +40068,7 @@
         <v>4792.5</v>
       </c>
       <c r="B4961">
-        <v>103.1285018920898</v>
+        <v>112.9029998779297</v>
       </c>
     </row>
     <row r="4962" spans="1:2">
@@ -40076,7 +40076,7 @@
         <v>4793</v>
       </c>
       <c r="B4962">
-        <v>103.1285018920898</v>
+        <v>112.9029998779297</v>
       </c>
     </row>
     <row r="4963" spans="1:2">
@@ -40084,7 +40084,7 @@
         <v>4793.5</v>
       </c>
       <c r="B4963">
-        <v>105.9736938476562</v>
+        <v>114.2299270629883</v>
       </c>
     </row>
     <row r="4964" spans="1:2">
@@ -40092,7 +40092,7 @@
         <v>4794</v>
       </c>
       <c r="B4964">
-        <v>106.2885360717773</v>
+        <v>114.5447692871094</v>
       </c>
     </row>
     <row r="4965" spans="1:2">
@@ -40100,7 +40100,7 @@
         <v>4794.5</v>
       </c>
       <c r="B4965">
-        <v>106.2885360717773</v>
+        <v>114.5447692871094</v>
       </c>
     </row>
     <row r="4966" spans="1:2">
@@ -40108,7 +40108,7 @@
         <v>4795</v>
       </c>
       <c r="B4966">
-        <v>107.0746307373047</v>
+        <v>115.3308639526367</v>
       </c>
     </row>
     <row r="4967" spans="1:2">
@@ -40116,7 +40116,7 @@
         <v>4795.5</v>
       </c>
       <c r="B4967">
-        <v>105.5586853027344</v>
+        <v>115.3331909179688</v>
       </c>
     </row>
     <row r="4968" spans="1:2">
@@ -40124,7 +40124,7 @@
         <v>4796</v>
       </c>
       <c r="B4968">
-        <v>105.5586853027344</v>
+        <v>115.3331909179688</v>
       </c>
     </row>
     <row r="4969" spans="1:2">
@@ -40132,7 +40132,7 @@
         <v>4796.5</v>
       </c>
       <c r="B4969">
-        <v>106.2885360717773</v>
+        <v>114.5447692871094</v>
       </c>
     </row>
     <row r="4970" spans="1:2">
@@ -40140,7 +40140,7 @@
         <v>4797</v>
       </c>
       <c r="B4970">
-        <v>104.3766708374023</v>
+        <v>106.7757568359375</v>
       </c>
     </row>
     <row r="4971" spans="1:2">
@@ -40148,7 +40148,7 @@
         <v>4797.5</v>
       </c>
       <c r="B4971">
-        <v>100.9609985351562</v>
+        <v>102.0675582885742</v>
       </c>
     </row>
     <row r="4972" spans="1:2">
@@ -40156,7 +40156,7 @@
         <v>4798</v>
       </c>
       <c r="B4972">
-        <v>96.68789672851562</v>
+        <v>98.53292083740234</v>
       </c>
     </row>
     <row r="4973" spans="1:2">
@@ -40164,7 +40164,7 @@
         <v>4798.5</v>
       </c>
       <c r="B4973">
-        <v>97.25574493408203</v>
+        <v>95.7418212890625</v>
       </c>
     </row>
     <row r="4974" spans="1:2">
@@ -40172,7 +40172,7 @@
         <v>4799</v>
       </c>
       <c r="B4974">
-        <v>98.65164947509766</v>
+        <v>95.95289611816406</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40180,7 +40180,7 @@
         <v>4799.5</v>
       </c>
       <c r="B4975">
-        <v>98.89646911621094</v>
+        <v>97.64508056640625</v>
       </c>
     </row>
     <row r="4976" spans="1:2">
@@ -40188,7 +40188,7 @@
         <v>4800</v>
       </c>
       <c r="B4976">
-        <v>100.8011245727539</v>
+        <v>97.37232971191406</v>
       </c>
     </row>
     <row r="4977" spans="1:2">
@@ -40196,7 +40196,7 @@
         <v>4800.5</v>
       </c>
       <c r="B4977">
-        <v>101.6861877441406</v>
+        <v>103.9690322875977</v>
       </c>
     </row>
     <row r="4978" spans="1:2">
@@ -40204,7 +40204,7 @@
         <v>4801</v>
       </c>
       <c r="B4978">
-        <v>102.2111282348633</v>
+        <v>99.91697692871094</v>
       </c>
     </row>
     <row r="4979" spans="1:2">
@@ -40212,7 +40212,7 @@
         <v>4801.5</v>
       </c>
       <c r="B4979">
-        <v>90.35211944580078</v>
+        <v>99.91697692871094</v>
       </c>
     </row>
     <row r="4980" spans="1:2">
@@ -40220,7 +40220,7 @@
         <v>4802</v>
       </c>
       <c r="B4980">
-        <v>90.58020782470703</v>
+        <v>97.9580078125</v>
       </c>
     </row>
     <row r="4981" spans="1:2">
@@ -40228,7 +40228,7 @@
         <v>4802.5</v>
       </c>
       <c r="B4981">
-        <v>90.31145477294922</v>
+        <v>98.66783142089844</v>
       </c>
     </row>
     <row r="4982" spans="1:2">
@@ -40236,7 +40236,7 @@
         <v>4803</v>
       </c>
       <c r="B4982">
-        <v>90.31145477294922</v>
+        <v>98.66783142089844</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40244,7 +40244,7 @@
         <v>4803.5</v>
       </c>
       <c r="B4983">
-        <v>91.37470245361328</v>
+        <v>99.7310791015625</v>
       </c>
     </row>
     <row r="4984" spans="1:2">
@@ -40252,7 +40252,7 @@
         <v>4804</v>
       </c>
       <c r="B4984">
-        <v>91.37470245361328</v>
+        <v>99.7310791015625</v>
       </c>
     </row>
     <row r="4985" spans="1:2">
@@ -40260,7 +40260,7 @@
         <v>4804.5</v>
       </c>
       <c r="B4985">
-        <v>91.37470245361328</v>
+        <v>99.7310791015625</v>
       </c>
     </row>
     <row r="4986" spans="1:2">
@@ -40268,7 +40268,7 @@
         <v>4805</v>
       </c>
       <c r="B4986">
-        <v>91.37470245361328</v>
+        <v>99.7310791015625</v>
       </c>
     </row>
     <row r="4987" spans="1:2">
@@ -40276,7 +40276,7 @@
         <v>4805.5</v>
       </c>
       <c r="B4987">
-        <v>90.31145477294922</v>
+        <v>98.66783142089844</v>
       </c>
     </row>
     <row r="4988" spans="1:2">
@@ -40284,7 +40284,7 @@
         <v>4806</v>
       </c>
       <c r="B4988">
-        <v>90.35211944580078</v>
+        <v>98.70138549804688</v>
       </c>
     </row>
     <row r="4989" spans="1:2">
@@ -40292,7 +40292,7 @@
         <v>4806.5</v>
       </c>
       <c r="B4989">
-        <v>86.94127655029297</v>
+        <v>102.3151626586914</v>
       </c>
     </row>
     <row r="4990" spans="1:2">
@@ -40300,7 +40300,7 @@
         <v>4807</v>
       </c>
       <c r="B4990">
-        <v>85.17511749267578</v>
+        <v>95.09198760986328</v>
       </c>
     </row>
     <row r="4991" spans="1:2">
@@ -40308,7 +40308,7 @@
         <v>4807.5</v>
       </c>
       <c r="B4991">
-        <v>83.75569915771484</v>
+        <v>93.67255401611328</v>
       </c>
     </row>
     <row r="4992" spans="1:2">
@@ -40316,7 +40316,7 @@
         <v>4808</v>
       </c>
       <c r="B4992">
-        <v>75.89143371582031</v>
+        <v>94.893310546875</v>
       </c>
     </row>
     <row r="4993" spans="1:2">
@@ -40324,7 +40324,7 @@
         <v>4808.5</v>
       </c>
       <c r="B4993">
-        <v>70.53193664550781</v>
+        <v>94.23140716552734</v>
       </c>
     </row>
     <row r="4994" spans="1:2">
@@ -40332,7 +40332,7 @@
         <v>4809</v>
       </c>
       <c r="B4994">
-        <v>71.95135498046875</v>
+        <v>95.65084075927734</v>
       </c>
     </row>
     <row r="4995" spans="1:2">
@@ -40340,7 +40340,7 @@
         <v>4809.5</v>
       </c>
       <c r="B4995">
-        <v>71.47492980957031</v>
+        <v>95.65084075927734</v>
       </c>
     </row>
     <row r="4996" spans="1:2">
@@ -40348,7 +40348,7 @@
         <v>4810</v>
       </c>
       <c r="B4996">
-        <v>73.69221496582031</v>
+        <v>99.26023864746094</v>
       </c>
     </row>
     <row r="4997" spans="1:2">
@@ -40356,7 +40356,7 @@
         <v>4810.5</v>
       </c>
       <c r="B4997">
-        <v>77.08769226074219</v>
+        <v>99.2266845703125</v>
       </c>
     </row>
     <row r="4998" spans="1:2">
@@ -40364,7 +40364,7 @@
         <v>4811</v>
       </c>
       <c r="B4998">
-        <v>78.15093994140625</v>
+        <v>100.2899322509766</v>
       </c>
     </row>
     <row r="4999" spans="1:2">
@@ -40372,7 +40372,7 @@
         <v>4811.5</v>
       </c>
       <c r="B4999">
-        <v>79.74400329589844</v>
+        <v>101.3980712890625</v>
       </c>
     </row>
     <row r="5000" spans="1:2">
@@ -40380,7 +40380,7 @@
         <v>4812</v>
       </c>
       <c r="B5000">
-        <v>79.74400329589844</v>
+        <v>101.3980712890625</v>
       </c>
     </row>
     <row r="5001" spans="1:2">
@@ -40388,7 +40388,7 @@
         <v>4812.5</v>
       </c>
       <c r="B5001">
-        <v>79.74400329589844</v>
+        <v>101.3980712890625</v>
       </c>
     </row>
     <row r="5002" spans="1:2">
@@ -40396,7 +40396,7 @@
         <v>4813</v>
       </c>
       <c r="B5002">
-        <v>79.74400329589844</v>
+        <v>101.3980712890625</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40404,7 +40404,7 @@
         <v>4813.5</v>
       </c>
       <c r="B5003">
-        <v>78.15093994140625</v>
+        <v>100.2899322509766</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40412,7 +40412,7 @@
         <v>4814</v>
       </c>
       <c r="B5004">
-        <v>77.08769226074219</v>
+        <v>99.2266845703125</v>
       </c>
     </row>
     <row r="5005" spans="1:2">
@@ -40420,7 +40420,7 @@
         <v>4814.5</v>
       </c>
       <c r="B5005">
-        <v>77.12835693359375</v>
+        <v>99.26023864746094</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40428,7 +40428,7 @@
         <v>4815</v>
       </c>
       <c r="B5006">
-        <v>71.47492980957031</v>
+        <v>95.65084075927734</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40436,7 +40436,7 @@
         <v>4815.5</v>
       </c>
       <c r="B5007">
-        <v>71.95135498046875</v>
+        <v>95.65084075927734</v>
       </c>
     </row>
     <row r="5008" spans="1:2">
@@ -40444,7 +40444,7 @@
         <v>4816</v>
       </c>
       <c r="B5008">
-        <v>71.95135498046875</v>
+        <v>94.31671905517578</v>
       </c>
     </row>
     <row r="5009" spans="1:2">
@@ -40452,7 +40452,7 @@
         <v>4816.5</v>
       </c>
       <c r="B5009">
-        <v>71.95135498046875</v>
+        <v>94.31671905517578</v>
       </c>
     </row>
     <row r="5010" spans="1:2">
@@ -40460,7 +40460,7 @@
         <v>4817</v>
       </c>
       <c r="B5010">
-        <v>73.71751403808594</v>
+        <v>101.5398941040039</v>
       </c>
     </row>
     <row r="5011" spans="1:2">
@@ -40468,7 +40468,7 @@
         <v>4817.5</v>
       </c>
       <c r="B5011">
-        <v>73.69221496582031</v>
+        <v>97.92611694335938</v>
       </c>
     </row>
     <row r="5012" spans="1:2">
@@ -40476,7 +40476,7 @@
         <v>4818</v>
       </c>
       <c r="B5012">
-        <v>77.12835693359375</v>
+        <v>97.92611694335938</v>
       </c>
     </row>
     <row r="5013" spans="1:2">
@@ -40484,7 +40484,7 @@
         <v>4818.5</v>
       </c>
       <c r="B5013">
-        <v>77.3564453125</v>
+        <v>97.1827392578125</v>
       </c>
     </row>
     <row r="5014" spans="1:2">
@@ -40492,7 +40492,7 @@
         <v>4819</v>
       </c>
       <c r="B5014">
-        <v>77.12835693359375</v>
+        <v>96.931396484375</v>
       </c>
     </row>
     <row r="5015" spans="1:2">
@@ -40500,7 +40500,7 @@
         <v>4819.5</v>
       </c>
       <c r="B5015">
-        <v>77.12835693359375</v>
+        <v>97.92611694335938</v>
       </c>
     </row>
     <row r="5016" spans="1:2">
@@ -40508,7 +40508,7 @@
         <v>4820</v>
       </c>
       <c r="B5016">
-        <v>73.69221496582031</v>
+        <v>97.92611694335938</v>
       </c>
     </row>
     <row r="5017" spans="1:2">
@@ -40516,7 +40516,7 @@
         <v>4820.5</v>
       </c>
       <c r="B5017">
-        <v>73.69221496582031</v>
+        <v>97.92611694335938</v>
       </c>
     </row>
     <row r="5018" spans="1:2">
@@ -40524,7 +40524,7 @@
         <v>4821</v>
       </c>
       <c r="B5018">
-        <v>73.71751403808594</v>
+        <v>101.5398941040039</v>
       </c>
     </row>
     <row r="5019" spans="1:2">
@@ -40532,7 +40532,7 @@
         <v>4821.5</v>
       </c>
       <c r="B5019">
-        <v>73.71751403808594</v>
+        <v>101.5398941040039</v>
       </c>
     </row>
     <row r="5020" spans="1:2">
@@ -40540,7 +40540,7 @@
         <v>4822</v>
       </c>
       <c r="B5020">
-        <v>73.71751403808594</v>
+        <v>101.5398941040039</v>
       </c>
     </row>
     <row r="5021" spans="1:2">
@@ -40548,7 +40548,7 @@
         <v>4822.5</v>
       </c>
       <c r="B5021">
-        <v>80.29340362548828</v>
+        <v>104.6737670898438</v>
       </c>
     </row>
     <row r="5022" spans="1:2">
@@ -40556,7 +40556,7 @@
         <v>4823</v>
       </c>
       <c r="B5022">
-        <v>78.52724456787109</v>
+        <v>97.45059204101562</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40564,7 +40564,7 @@
         <v>4823.5</v>
       </c>
       <c r="B5023">
-        <v>77.10782623291016</v>
+        <v>96.03115844726562</v>
       </c>
     </row>
     <row r="5024" spans="1:2">
@@ -40572,7 +40572,7 @@
         <v>4824</v>
       </c>
       <c r="B5024">
-        <v>77.10782623291016</v>
+        <v>96.03115844726562</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40580,7 +40580,7 @@
         <v>4824.5</v>
       </c>
       <c r="B5025">
-        <v>77.10782623291016</v>
+        <v>96.03115844726562</v>
       </c>
     </row>
     <row r="5026" spans="1:2">
@@ -40588,7 +40588,7 @@
         <v>4825</v>
       </c>
       <c r="B5026">
-        <v>77.10782623291016</v>
+        <v>96.03115844726562</v>
       </c>
     </row>
     <row r="5027" spans="1:2">
@@ -40596,7 +40596,7 @@
         <v>4825.5</v>
       </c>
       <c r="B5027">
-        <v>77.10782623291016</v>
+        <v>96.03115844726562</v>
       </c>
     </row>
     <row r="5028" spans="1:2">
@@ -40604,7 +40604,7 @@
         <v>4826</v>
       </c>
       <c r="B5028">
-        <v>77.10782623291016</v>
+        <v>96.03115844726562</v>
       </c>
     </row>
     <row r="5029" spans="1:2">
@@ -40612,7 +40612,7 @@
         <v>4826.5</v>
       </c>
       <c r="B5029">
-        <v>77.10782623291016</v>
+        <v>96.03115844726562</v>
       </c>
     </row>
     <row r="5030" spans="1:2">
@@ -40620,7 +40620,7 @@
         <v>4827</v>
       </c>
       <c r="B5030">
-        <v>77.10782623291016</v>
+        <v>96.03115844726562</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40628,7 +40628,7 @@
         <v>4827.5</v>
       </c>
       <c r="B5031">
-        <v>71.06118774414062</v>
+        <v>96.03115844726562</v>
       </c>
     </row>
     <row r="5032" spans="1:2">
@@ -40636,7 +40636,7 @@
         <v>4828</v>
       </c>
       <c r="B5032">
-        <v>71.06118774414062</v>
+        <v>96.03115844726562</v>
       </c>
     </row>
   </sheetData>
